--- a/dist/data/profiles/xlsx/bluff/profile 35-1 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 35-1 graph.xlsx
@@ -18292,11 +18292,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72000002"/>
-        <c:axId val="53182712"/>
+        <c:axId val="89477400"/>
+        <c:axId val="45518644"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72000002"/>
+        <c:axId val="89477400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18331,12 +18331,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="53182712"/>
+        <c:crossAx val="45518644"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53182712"/>
+        <c:axId val="45518644"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18380,7 +18380,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72000002"/>
+        <c:crossAx val="89477400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
